--- a/results/HQscenario_noCO.xlsx
+++ b/results/HQscenario_noCO.xlsx
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6561823.61134814</v>
+        <v>6559478.630070899</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6561823.61134814</v>
+        <v>6559478.630070899</v>
       </c>
     </row>
     <row r="3">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>11363059.99977706</v>
+        <v>11358999.21354905</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11363059.99977706</v>
+        <v>11358999.21354905</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>128914.2054375392</v>
+        <v>128868.1357142387</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>128914.2054375392</v>
+        <v>128868.1357142387</v>
       </c>
     </row>
     <row r="5">
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>705784.1990356904</v>
+        <v>705531.9748323988</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>705784.1990356904</v>
+        <v>705531.9748323988</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2604500659.16819</v>
+        <v>2294682533.419445</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3976735849.669701</v>
+        <v>3666917723.920956</v>
       </c>
     </row>
     <row r="10">
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>53775853.6897857</v>
+        <v>53756635.95740835</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>53775853.6897857</v>
+        <v>53756635.95740835</v>
       </c>
     </row>
     <row r="12">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>82188766.02464283</v>
+        <v>82159394.44610876</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>82188766.02464283</v>
+        <v>82159394.44610876</v>
       </c>
     </row>
     <row r="13">
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>280208.504128363</v>
+        <v>280108.3667679547</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>280208.504128363</v>
+        <v>280108.3667679547</v>
       </c>
     </row>
     <row r="14">
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>11505069.69633713</v>
+        <v>11500958.16048532</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>11505069.69633713</v>
+        <v>11500958.16048532</v>
       </c>
     </row>
     <row r="17">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>175082352.9036433</v>
+        <v>175019784.1935023</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>175082352.9036433</v>
+        <v>175019784.1935023</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>21089561.67182567</v>
+        <v>21082024.95182299</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>21089561.67182567</v>
+        <v>21082024.95182299</v>
       </c>
     </row>
     <row r="23">
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6977805.227807385</v>
+        <v>6975311.588297304</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6977805.227807385</v>
+        <v>6975311.588297304</v>
       </c>
     </row>
     <row r="24">
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>296283909.0755829</v>
+        <v>296178026.8908914</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>296283909.0755829</v>
+        <v>296178026.8908914</v>
       </c>
     </row>
     <row r="26">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>90537.30873756681</v>
+        <v>90540.19425228065</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>82426228.66231745</v>
+        <v>82396736.98180892</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>82516765.97105502</v>
+        <v>82487277.1760612</v>
       </c>
     </row>
     <row r="27">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>107300540.2000094</v>
+        <v>107300540.2000116</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1131.850228557421</v>
+        <v>1131.445715262</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>107301672.050238</v>
+        <v>107301671.6457269</v>
       </c>
     </row>
     <row r="32">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>53395758.35301419</v>
+        <v>53376676.45428631</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>53395758.35301419</v>
+        <v>53376676.45428631</v>
       </c>
     </row>
     <row r="36">
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>173779571.0450976</v>
+        <v>173717467.9066098</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>173779571.0450976</v>
+        <v>173717467.9066098</v>
       </c>
     </row>
     <row r="37">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>221991.786563734</v>
+        <v>221912.4539552968</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>221991.786563734</v>
+        <v>221912.4539552968</v>
       </c>
     </row>
     <row r="39">
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>565082761.8001571</v>
+        <v>565082765.5200381</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>87286563.32366437</v>
+        <v>87255324.52835703</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>652369325.1238215</v>
+        <v>652338090.0483952</v>
       </c>
     </row>
     <row r="41">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2394729.106126615</v>
+        <v>2393873.308218816</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2394729.106126615</v>
+        <v>2393873.308218816</v>
       </c>
     </row>
     <row r="46">
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>100120776.5441906</v>
+        <v>100084996.6512272</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>100120776.5441906</v>
+        <v>100084996.6512272</v>
       </c>
     </row>
     <row r="47">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>180823143.8144658</v>
+        <v>180758523.5332983</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>180823143.8144658</v>
+        <v>180758523.5332983</v>
       </c>
     </row>
     <row r="49">
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>430.6718985771277</v>
+        <v>430.5179905176287</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>430.6718985771277</v>
+        <v>430.5179905176287</v>
       </c>
     </row>
     <row r="51">
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>11537146.17076253</v>
+        <v>11533023.17182723</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>11537146.17076253</v>
+        <v>11533023.17182723</v>
       </c>
     </row>
     <row r="53">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>5777.911691211159</v>
+        <v>5775.846854431028</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>5777.911691211159</v>
+        <v>5775.846854431028</v>
       </c>
     </row>
     <row r="54">
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>51541948.04045695</v>
+        <v>51523528.63294066</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>51541948.04045695</v>
+        <v>51523528.63294066</v>
       </c>
     </row>
     <row r="55">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>164313933.3017717</v>
+        <v>164313933.3020834</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>85959.13050162437</v>
+        <v>85928.40771124304</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>164399892.4322733</v>
+        <v>164399861.7097946</v>
       </c>
     </row>
     <row r="58">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>142027913.898886</v>
+        <v>141977157.7648195</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>142027913.898886</v>
+        <v>141977157.7648195</v>
       </c>
     </row>
     <row r="59">
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>117108.6670093955</v>
+        <v>117066.8161996504</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>117108.6670093955</v>
+        <v>117066.8161996504</v>
       </c>
     </row>
     <row r="60">
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>57032092.34591687</v>
+        <v>57011710.94027809</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>57032092.34591687</v>
+        <v>57011710.94027809</v>
       </c>
     </row>
     <row r="62">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>51124053.14187074</v>
+        <v>51105783.07633179</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>146678041.7791444</v>
+        <v>146659771.7136054</v>
       </c>
     </row>
     <row r="63">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>167896595.5044261</v>
+        <v>167836594.7491041</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>167896595.5044261</v>
+        <v>167836594.7491041</v>
       </c>
     </row>
     <row r="64">
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2502804674.249134</v>
+        <v>1290552412.996203</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>5721042516.887733</v>
+        <v>4508790255.634803</v>
       </c>
     </row>
     <row r="67">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>100929716.5647624</v>
+        <v>100893647.5830768</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>100929716.5647624</v>
+        <v>100893647.5830768</v>
       </c>
     </row>
     <row r="70">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4031323080.766756</v>
+        <v>4031323091.636458</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>83707053.97851485</v>
+        <v>83677007.06257923</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>4115030134.74527</v>
+        <v>4115000098.699037</v>
       </c>
     </row>
     <row r="72">
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>3595183.23510032</v>
+        <v>3593898.434125179</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>3595183.23510032</v>
+        <v>3593898.434125179</v>
       </c>
     </row>
     <row r="73">
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>222906.0974928759</v>
+        <v>222913.2017334712</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>75683311.21377133</v>
+        <v>75656177.70855384</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>75906217.3112642</v>
+        <v>75879090.91028731</v>
       </c>
     </row>
     <row r="74">
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>298743985.9785731</v>
+        <v>298637224.6428072</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>298743985.9785731</v>
+        <v>298637224.6428072</v>
       </c>
     </row>
     <row r="76">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>31.8871637419285</v>
+        <v>31.88818001777592</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>15714114.41766413</v>
+        <v>15708498.69439514</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>15714146.30482788</v>
+        <v>15708530.58257516</v>
       </c>
     </row>
     <row r="79">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1691623.005550144</v>
+        <v>1691018.474780786</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1691623.005550144</v>
+        <v>1691018.474780786</v>
       </c>
     </row>
     <row r="82">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>7952616.640921078</v>
+        <v>7949774.635674885</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>7952616.640921078</v>
+        <v>7949774.635674885</v>
       </c>
     </row>
     <row r="83">
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>69685.55493863649</v>
+        <v>69660.6515990614</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>69685.55493863649</v>
+        <v>69660.6515990614</v>
       </c>
     </row>
     <row r="84">
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>81796015.1860638</v>
+        <v>81766783.96384189</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>81796015.1860638</v>
+        <v>81766783.96384189</v>
       </c>
     </row>
     <row r="86">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>496617.3262432272</v>
+        <v>496439.8514433895</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>496617.3262432272</v>
+        <v>496439.8514433895</v>
       </c>
     </row>
     <row r="89">
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>8248266346.437545</v>
+        <v>8245318685.650284</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>8248266346.437545</v>
+        <v>8245318685.650284</v>
       </c>
     </row>
     <row r="91">
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12820373.08391098</v>
+        <v>12819023.2048875</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>12820373.08391098</v>
+        <v>12819023.2048875</v>
       </c>
     </row>
     <row r="3">
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22200942.48191433</v>
+        <v>22198604.90668451</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22200942.48191433</v>
+        <v>22198604.90668451</v>
       </c>
     </row>
     <row r="4">
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>251870.2585462584</v>
+        <v>251843.7386956716</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>251870.2585462584</v>
+        <v>251843.7386956716</v>
       </c>
     </row>
     <row r="5">
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1378948.488148681</v>
+        <v>1378803.296302357</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1378948.488148681</v>
+        <v>1378803.296302357</v>
       </c>
     </row>
     <row r="7">
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4027927931.639478</v>
+        <v>3718109805.890734</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6341863122.140989</v>
+        <v>6032044996.392245</v>
       </c>
     </row>
     <row r="10">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>105066296.8167198</v>
+        <v>105055234.2065118</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>105066296.8167198</v>
+        <v>105055234.2065118</v>
       </c>
     </row>
     <row r="12">
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>160578934.4778967</v>
+        <v>160562026.847062</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>160578934.4778967</v>
+        <v>160562026.847062</v>
       </c>
     </row>
     <row r="13">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>547466.3412161064</v>
+        <v>547408.697548076</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>547466.3412161064</v>
+        <v>547408.697548076</v>
       </c>
     </row>
     <row r="14">
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22478398.47574574</v>
+        <v>22476031.68669948</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>22478398.47574574</v>
+        <v>22476031.68669948</v>
       </c>
     </row>
     <row r="17">
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>342072755.6211329</v>
+        <v>342036738.1952517</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>342072755.6211329</v>
+        <v>342036738.1952517</v>
       </c>
     </row>
     <row r="22">
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>41204406.70507527</v>
+        <v>41200068.22257382</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41204406.70507527</v>
+        <v>41200068.22257382</v>
       </c>
     </row>
     <row r="23">
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>13633110.4927363</v>
+        <v>13631675.03920008</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>13633110.4927363</v>
+        <v>13631675.03920008</v>
       </c>
     </row>
     <row r="24">
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>578874178.595625</v>
+        <v>578813227.942644</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>638206713.3123267</v>
+        <v>638145762.6593456</v>
       </c>
     </row>
     <row r="26">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2613571.32126653</v>
+        <v>2613610.920575189</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>160963219.3139909</v>
+        <v>160946204.6086648</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163576790.6352575</v>
+        <v>163559815.52924</v>
       </c>
     </row>
     <row r="27">
@@ -4490,7 +4490,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>262105041.5023063</v>
+        <v>262105041.5023231</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2211.415598530166</v>
+        <v>2211.182726582118</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>262107252.9179049</v>
+        <v>262107252.6850497</v>
       </c>
     </row>
     <row r="32">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>104323673.3764252</v>
+        <v>104312688.9583102</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>104323673.3764252</v>
+        <v>104312688.9583102</v>
       </c>
     </row>
     <row r="36">
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>339527403.8313314</v>
+        <v>339491654.4098963</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>339527403.8313314</v>
+        <v>339491654.4098963</v>
       </c>
     </row>
     <row r="37">
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>433723.5643440722</v>
+        <v>433677.8968476843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>433723.5643440722</v>
+        <v>433677.8968476843</v>
       </c>
     </row>
     <row r="39">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1211202877.123633</v>
+        <v>1211202921.840612</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170477246.550527</v>
+        <v>170459221.4882362</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1381680123.67416</v>
+        <v>1381662143.328848</v>
       </c>
     </row>
     <row r="41">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>4678778.704497394</v>
+        <v>4678286.067880081</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4678778.704497394</v>
+        <v>4678286.067880081</v>
       </c>
     </row>
     <row r="46">
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>195614174.469358</v>
+        <v>195593577.9181434</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>195614174.469358</v>
+        <v>195593577.9181434</v>
       </c>
     </row>
     <row r="47">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>353289009.7652075</v>
+        <v>353251811.3607312</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>353289009.7652075</v>
+        <v>353251811.3607312</v>
       </c>
     </row>
     <row r="49">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>841.4390181056195</v>
+        <v>841.3504215513187</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>841.4390181056195</v>
+        <v>841.3504215513187</v>
       </c>
     </row>
     <row r="51">
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>22541068.91520087</v>
+        <v>22538695.52747678</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>22541068.91520087</v>
+        <v>22538695.52747678</v>
       </c>
     </row>
     <row r="53">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>11288.78005789602</v>
+        <v>11287.59144292349</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>11288.78005789602</v>
+        <v>11287.59144292349</v>
       </c>
     </row>
     <row r="54">
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>100701732.0928035</v>
+        <v>100691129.035085</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>100701732.0928035</v>
+        <v>100691129.035085</v>
       </c>
     </row>
     <row r="55">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>338993981.3887741</v>
+        <v>338993981.3911793</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>167948.9304972056</v>
+        <v>167931.2428209587</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>339161930.3192713</v>
+        <v>339161912.6340002</v>
       </c>
     </row>
     <row r="58">
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>277491586.5407128</v>
+        <v>277462368.9766518</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>277491586.5407128</v>
+        <v>277462368.9766518</v>
       </c>
     </row>
     <row r="59">
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>228804.8096604486</v>
+        <v>228780.7184104505</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>228804.8096604486</v>
+        <v>228780.7184104505</v>
       </c>
     </row>
     <row r="60">
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>111428277.4023695</v>
+        <v>111416544.9283374</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>111428277.4023695</v>
+        <v>111416544.9283374</v>
       </c>
     </row>
     <row r="62">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>99885256.54773204</v>
+        <v>99874739.45812106</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>242118936.0755103</v>
+        <v>242108418.9858993</v>
       </c>
     </row>
     <row r="63">
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>328033351.9119083</v>
+        <v>327998812.7188714</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>328033351.9119083</v>
+        <v>327998812.7188714</v>
       </c>
     </row>
     <row r="64">
@@ -5645,7 +5645,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5045039339.746584</v>
+        <v>2601436604.526104</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>10919400131.68358</v>
+        <v>8475797396.463104</v>
       </c>
     </row>
     <row r="67">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>197194666.9483544</v>
+        <v>197173903.9843817</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>197194666.9483544</v>
+        <v>197173903.9843817</v>
       </c>
     </row>
     <row r="70">
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8065854513.35629</v>
+        <v>8065854601.999779</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>163637379.0626005</v>
+        <v>163620000.2901235</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>8229491892.41889</v>
+        <v>8229474602.289903</v>
       </c>
     </row>
     <row r="72">
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>7024204.414653344</v>
+        <v>7023464.82414892</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>7024204.414653344</v>
+        <v>7023464.82414892</v>
       </c>
     </row>
     <row r="73">
@@ -5876,7 +5876,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>329005.8491541456</v>
+        <v>329056.6311517916</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>147975197.8231075</v>
+        <v>147959531.8376893</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>148304203.6722616</v>
+        <v>148288588.468841</v>
       </c>
     </row>
     <row r="74">
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>583680632.6516138</v>
+        <v>583619175.9188592</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>583680632.6516138</v>
+        <v>583619175.9188592</v>
       </c>
     </row>
     <row r="76">
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3286.366757250456</v>
+        <v>3286.87400740835</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>30698730.36753042</v>
+        <v>30695497.19239321</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>30702016.73428767</v>
+        <v>30698784.06640062</v>
       </c>
     </row>
     <row r="79">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>3305062.637004347</v>
+        <v>3304714.641302833</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>3305062.637004347</v>
+        <v>3304714.641302833</v>
       </c>
     </row>
     <row r="82">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>15537679.51848072</v>
+        <v>15536043.52961219</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>15537679.51848072</v>
+        <v>15536043.52961219</v>
       </c>
     </row>
     <row r="83">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>136150.3852873524</v>
+        <v>136136.0497802703</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>136150.3852873524</v>
+        <v>136136.0497802703</v>
       </c>
     </row>
     <row r="84">
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>159811584.9455359</v>
+        <v>159794758.1102467</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>159811584.9455359</v>
+        <v>159794758.1102467</v>
       </c>
     </row>
     <row r="86">
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>970282.0099219999</v>
+        <v>970179.8472685819</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>970282.0099219999</v>
+        <v>970179.8472685819</v>
       </c>
     </row>
     <row r="89">
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>16115314601.55647</v>
+        <v>16113617792.50145</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>16115314601.55647</v>
+        <v>16113617792.50145</v>
       </c>
     </row>
     <row r="91">
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>5728513174.891101</v>
+        <v>5418695049.142356</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>8984148365.392612</v>
+        <v>8674330239.643867</v>
       </c>
     </row>
     <row r="10">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>866133.3657099486</v>
+        <v>866133.3657099485</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>866133.3657099486</v>
+        <v>866133.3657099485</v>
       </c>
     </row>
     <row r="14">
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>915822951.8108319</v>
+        <v>915822951.8108318</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -7361,7 +7361,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>951738913.2840779</v>
+        <v>951739035.8213598</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>254481520.5212591</v>
+        <v>254481397.9839772</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>416909542.8434555</v>
+        <v>416909542.843495</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3498.612719656679</v>
+        <v>3498.612680225287</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -7823,7 +7823,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1857365354.719243</v>
+        <v>1857365461.348975</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>269661239.3033751</v>
+        <v>269661132.6736433</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>558930067.5847133</v>
+        <v>558930067.5847132</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>558930067.5847133</v>
+        <v>558930067.5847132</v>
       </c>
     </row>
     <row r="49">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>513674029.7243924</v>
+        <v>513674029.7289597</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>265710.9933295139</v>
+        <v>265710.9887621974</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -8681,7 +8681,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7587274005.244033</v>
+        <v>3912320796.056003</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>16399163626.85078</v>
+        <v>12724210417.66275</v>
       </c>
     </row>
     <row r="67">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>12100594326.45106</v>
+        <v>12100594540.93373</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>258779429.8181362</v>
+        <v>258779215.3354637</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>414556873.8994778</v>
+        <v>414556974.6245031</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>234151422.4670992</v>
+        <v>234151321.742074</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>923427127.4746659</v>
+        <v>923427127.4746658</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>923427127.4746659</v>
+        <v>923427127.4746658</v>
       </c>
     </row>
     <row r="76">
@@ -9077,7 +9077,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>20827.63006085233</v>
+        <v>20832.02717019772</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>48552096.55936402</v>
+        <v>48552092.16225467</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>48572924.18942487</v>
+        <v>48572924.18942486</v>
       </c>
     </row>
     <row r="79">
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>215400.2585614509</v>
+        <v>215400.2585614508</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>215400.2585614509</v>
+        <v>215400.2585614508</v>
       </c>
     </row>
     <row r="84">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1535059.892585834</v>
+        <v>1535059.892585833</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1535059.892585834</v>
+        <v>1535059.892585833</v>
       </c>
     </row>
     <row r="89">
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34801973.25972614</v>
+        <v>34801973.25972615</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34801973.25972614</v>
+        <v>34801973.25972615</v>
       </c>
     </row>
     <row r="3">
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>60266312.18446569</v>
+        <v>60266312.1844657</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>60266312.18446569</v>
+        <v>60266312.1844657</v>
       </c>
     </row>
     <row r="4">
@@ -9680,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>683722.8484284614</v>
+        <v>683722.8484284615</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>683722.8484284614</v>
+        <v>683722.8484284615</v>
       </c>
     </row>
     <row r="5">
@@ -9845,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7685887784.922583</v>
+        <v>7376069659.173838</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>11883222975.4241</v>
+        <v>11573404849.67535</v>
       </c>
     </row>
     <row r="10">
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285211235.9275019</v>
+        <v>285211235.927502</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>285211235.9275019</v>
+        <v>285211235.927502</v>
       </c>
     </row>
     <row r="12">
@@ -9944,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>435904926.2605593</v>
+        <v>435904926.2605594</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>435904926.2605593</v>
+        <v>435904926.2605594</v>
       </c>
     </row>
     <row r="13">
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>928585058.8035947</v>
+        <v>928585058.8035948</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -10250,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>928585058.8035947</v>
+        <v>928585058.8035948</v>
       </c>
     </row>
     <row r="22">
@@ -10397,7 +10397,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1901209879.069565</v>
+        <v>1901210061.203775</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>436394636.8961861</v>
+        <v>436394454.7619767</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2337604515.965752</v>
+        <v>2337604515.965751</v>
       </c>
     </row>
     <row r="27">
@@ -10562,7 +10562,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>571714044.2887933</v>
+        <v>571714044.2888471</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6002.998223588618</v>
+        <v>6002.998169808819</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>921675488.8288773</v>
+        <v>921675488.8288774</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>921675488.8288773</v>
+        <v>921675488.8288774</v>
       </c>
     </row>
     <row r="37">
@@ -10859,7 +10859,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2503859275.767144</v>
+        <v>2503859429.044111</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>462509297.9426799</v>
+        <v>462509144.6657133</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -11132,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>959032517.2544135</v>
+        <v>959032517.2544136</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>959032517.2544135</v>
+        <v>959032517.2544136</v>
       </c>
     </row>
     <row r="49">
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>61189613.78877075</v>
+        <v>61189613.78877076</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>61189613.78877075</v>
+        <v>61189613.78877076</v>
       </c>
     </row>
     <row r="53">
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>30644.33609992709</v>
+        <v>30644.3360999271</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>30644.33609992709</v>
+        <v>30644.3360999271</v>
       </c>
     </row>
     <row r="54">
@@ -11420,7 +11420,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>688354088.4393756</v>
+        <v>688354088.4449223</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>455915.6320718696</v>
+        <v>455915.6265251886</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>890473925.1202774</v>
+        <v>890473925.1202775</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>890473925.1202774</v>
+        <v>890473925.1202775</v>
       </c>
     </row>
     <row r="64">
@@ -11717,7 +11717,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>10129508670.74148</v>
+        <v>5223204987.585903</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>22932154436.82698</v>
+        <v>18025850753.6714</v>
       </c>
     </row>
     <row r="67">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>16135988743.73455</v>
+        <v>16135989051.51637</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>443654154.9712744</v>
+        <v>443653847.1894548</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -11948,7 +11948,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1700601769.808324</v>
+        <v>1700601910.264233</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>401620259.5768191</v>
+        <v>401620119.1209099</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -12113,7 +12113,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>350618095.6503581</v>
+        <v>350618104.9661449</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -12122,7 +12122,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>83279258.09422591</v>
+        <v>83279248.77843915</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>8971868.506626675</v>
+        <v>8971868.506626677</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -12230,7 +12230,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>8971868.506626675</v>
+        <v>8971868.506626677</v>
       </c>
     </row>
     <row r="82">
@@ -12353,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>433821891.8799454</v>
+        <v>433821891.8799455</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>433821891.8799454</v>
+        <v>433821891.8799455</v>
       </c>
     </row>
     <row r="86">
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>43746367142.72212</v>
+        <v>43746367142.72213</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>43746367142.72212</v>
+        <v>43746367142.72213</v>
       </c>
     </row>
     <row r="91">
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4475343.772949226</v>
+        <v>4472723.620444546</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4475343.772949226</v>
+        <v>4472723.620444546</v>
       </c>
     </row>
     <row r="3">
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7749918.745713242</v>
+        <v>7745381.447565248</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -12692,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7749918.745713242</v>
+        <v>7745381.447565248</v>
       </c>
     </row>
     <row r="4">
@@ -12716,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>87923.02578079449</v>
+        <v>87871.55001761156</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -12725,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87923.02578079449</v>
+        <v>87871.55001761156</v>
       </c>
     </row>
     <row r="5">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>481364.1919203293</v>
+        <v>481082.3705324961</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>481364.1919203293</v>
+        <v>481082.3705324961</v>
       </c>
     </row>
     <row r="7">
@@ -12881,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2139017912.317069</v>
+        <v>1829199786.568324</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3134573102.81858</v>
+        <v>2824754977.069836</v>
       </c>
     </row>
     <row r="10">
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>36676607.93706796</v>
+        <v>36655135.10480637</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -12956,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36676607.93706796</v>
+        <v>36655135.10480637</v>
       </c>
     </row>
     <row r="12">
@@ -12980,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>56054993.85851309</v>
+        <v>56022175.6796179</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56054993.85851309</v>
+        <v>56022175.6796179</v>
       </c>
     </row>
     <row r="13">
@@ -13013,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>191109.8893163701</v>
+        <v>190998.0013630495</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -13022,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>191109.8893163701</v>
+        <v>190998.0013630495</v>
       </c>
     </row>
     <row r="14">
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>7846773.255806957</v>
+        <v>7842179.252833571</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7846773.255806957</v>
+        <v>7842179.252833571</v>
       </c>
     </row>
     <row r="17">
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>119410969.30212</v>
+        <v>119341058.4827112</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>119410969.30212</v>
+        <v>119341058.4827112</v>
       </c>
     </row>
     <row r="22">
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>14383659.80137075</v>
+        <v>14375238.68688949</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>14383659.80137075</v>
+        <v>14375238.68688949</v>
       </c>
     </row>
     <row r="23">
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>4759054.65077024</v>
+        <v>4756268.395770459</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -13352,7 +13352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4759054.65077024</v>
+        <v>4756268.395770459</v>
       </c>
     </row>
     <row r="24">
@@ -13409,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>202073756.6327299</v>
+        <v>201955449.7301917</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -13418,7 +13418,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>202073756.6327299</v>
+        <v>201955449.7301917</v>
       </c>
     </row>
     <row r="26">
@@ -13433,7 +13433,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>72148.06027435527</v>
+        <v>72144.71697857685</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>56206550.7626887</v>
+        <v>56173604.95589406</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -13451,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>56278698.82296305</v>
+        <v>56245749.67287264</v>
       </c>
     </row>
     <row r="27">
@@ -13598,7 +13598,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45378739.68168356</v>
+        <v>45378739.68168095</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -13607,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>771.9439515175482</v>
+        <v>771.4919757943812</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -13616,7 +13616,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>45379511.62563507</v>
+        <v>45379511.17365674</v>
       </c>
     </row>
     <row r="32">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>36417372.4867877</v>
+        <v>36396051.42754041</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -13748,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>36417372.4867877</v>
+        <v>36396051.42754041</v>
       </c>
     </row>
     <row r="36">
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>118522436.3235635</v>
+        <v>118453045.7081942</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>118522436.3235635</v>
+        <v>118453045.7081942</v>
       </c>
     </row>
     <row r="37">
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>151404.4903501706</v>
+        <v>151315.848477113</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151404.4903501706</v>
+        <v>151315.848477113</v>
       </c>
     </row>
     <row r="39">
@@ -13895,7 +13895,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>306665038.9335333</v>
+        <v>306665035.3263831</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>59533593.54425886</v>
+        <v>59498696.80405606</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -13913,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>366198632.4777921</v>
+        <v>366163732.1304391</v>
       </c>
     </row>
     <row r="41">
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1633270.966697341</v>
+        <v>1632314.745403219</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -14078,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1633270.966697341</v>
+        <v>1632314.745403219</v>
       </c>
     </row>
     <row r="46">
@@ -14102,7 +14102,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>68285117.12429689</v>
+        <v>68245138.64895675</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>68285117.12429689</v>
+        <v>68245138.64895675</v>
       </c>
     </row>
     <row r="47">
@@ -14168,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>123326346.2424755</v>
+        <v>123254143.1109634</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -14177,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>123326346.2424755</v>
+        <v>123254143.1109634</v>
       </c>
     </row>
     <row r="49">
@@ -14234,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>293.7300533571307</v>
+        <v>293.558084995805</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>293.7300533571307</v>
+        <v>293.558084995805</v>
       </c>
     </row>
     <row r="51">
@@ -14300,7 +14300,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>7868650.291609877</v>
+        <v>7864043.480420395</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>7868650.291609877</v>
+        <v>7864043.480420395</v>
       </c>
     </row>
     <row r="53">
@@ -14333,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>3940.69433125158</v>
+        <v>3938.387196728282</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -14342,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>3940.69433125158</v>
+        <v>3938.387196728282</v>
       </c>
     </row>
     <row r="54">
@@ -14366,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>35153022.981235</v>
+        <v>35132442.15306085</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -14375,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>35153022.981235</v>
+        <v>35132442.15306085</v>
       </c>
     </row>
     <row r="55">
@@ -14456,7 +14456,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>94441914.09957777</v>
+        <v>94441914.0992306</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>58625.6644702196</v>
+        <v>58591.33721731454</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -14474,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>94500539.764048</v>
+        <v>94500505.43644792</v>
       </c>
     </row>
     <row r="58">
@@ -14498,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>96866934.81871243</v>
+        <v>96810222.71909231</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -14507,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>96866934.81871243</v>
+        <v>96810222.71909231</v>
       </c>
     </row>
     <row r="59">
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>79871.32460441209</v>
+        <v>79824.56282211521</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>79871.32460441209</v>
+        <v>79824.56282211521</v>
       </c>
     </row>
     <row r="60">
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>38897452.05847207</v>
+        <v>38874679.00200818</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -14606,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>38897452.05847207</v>
+        <v>38874679.00200818</v>
       </c>
     </row>
     <row r="62">
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>34868007.19249898</v>
+        <v>34847593.23079824</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>111750119.4735708</v>
+        <v>111729705.5118701</v>
       </c>
     </row>
     <row r="63">
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>114510085.5638106</v>
+        <v>114443044.0352213</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>114510085.5638106</v>
+        <v>114443044.0352213</v>
       </c>
     </row>
     <row r="64">
@@ -14753,7 +14753,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1485910808.050154</v>
+        <v>766198736.3842437</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -14771,7 +14771,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3662535257.164074</v>
+        <v>2942823185.498164</v>
       </c>
     </row>
     <row r="67">
@@ -14861,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>68836836.4173139</v>
+        <v>68796534.93020956</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -14870,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>68836836.4173139</v>
+        <v>68796534.93020956</v>
       </c>
     </row>
     <row r="70">
@@ -14918,7 +14918,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2417547575.267137</v>
+        <v>2417547562.068719</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -14927,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>57038294.62671345</v>
+        <v>57004747.20674476</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -14936,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>2474585869.89385</v>
+        <v>2474552309.275464</v>
       </c>
     </row>
     <row r="72">
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>2452013.625601255</v>
+        <v>2450578.059984718</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2452013.625601255</v>
+        <v>2450578.059984718</v>
       </c>
     </row>
     <row r="73">
@@ -14984,7 +14984,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>181777.0126777196</v>
+        <v>181768.5892451729</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>51588346.21718211</v>
+        <v>51558045.09906207</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -15002,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>51770123.22985984</v>
+        <v>51739813.68830724</v>
       </c>
     </row>
     <row r="74">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>203751596.5901669</v>
+        <v>203632307.3727966</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>203751596.5901669</v>
+        <v>203632307.3727966</v>
       </c>
     </row>
     <row r="76">
@@ -15158,7 +15158,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>10717479.00856419</v>
+        <v>10711204.31082189</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -15167,7 +15167,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>10717479.00856419</v>
+        <v>10711204.31082189</v>
       </c>
     </row>
     <row r="79">
@@ -15257,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1153733.31141876</v>
+        <v>1153057.842141088</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -15266,7 +15266,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1153733.31141876</v>
+        <v>1153057.842141088</v>
       </c>
     </row>
     <row r="82">
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>5423902.785354872</v>
+        <v>5420727.285730892</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -15299,7 +15299,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>5423902.785354872</v>
+        <v>5420727.285730892</v>
       </c>
     </row>
     <row r="83">
@@ -15323,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>47527.46078388784</v>
+        <v>47499.63516830796</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>47527.46078388784</v>
+        <v>47499.63516830796</v>
       </c>
     </row>
     <row r="84">
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>55787127.00870698</v>
+        <v>55754465.65619944</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -15398,7 +15398,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>55787127.00870698</v>
+        <v>55754465.65619944</v>
       </c>
     </row>
     <row r="86">
@@ -15488,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>338706.6447043213</v>
+        <v>338508.3441695473</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>338706.6447043213</v>
+        <v>338508.3441695473</v>
       </c>
     </row>
     <row r="89">
@@ -15554,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>5625543997.756428</v>
+        <v>5622250444.468969</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -15563,7 +15563,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>5625543997.756428</v>
+        <v>5622250444.468969</v>
       </c>
     </row>
     <row r="91">
@@ -15686,7 +15686,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4475343.772949225</v>
+        <v>4472723.620444546</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -15695,7 +15695,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4475343.772949225</v>
+        <v>4472723.620444546</v>
       </c>
     </row>
     <row r="3">
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7749918.74571324</v>
+        <v>7745381.447565245</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7749918.74571324</v>
+        <v>7745381.447565245</v>
       </c>
     </row>
     <row r="4">
@@ -15752,7 +15752,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>87923.02578079446</v>
+        <v>87871.55001761152</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -15761,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87923.02578079446</v>
+        <v>87871.55001761152</v>
       </c>
     </row>
     <row r="5">
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>481364.1919203292</v>
+        <v>481082.370532496</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -15827,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>481364.1919203292</v>
+        <v>481082.370532496</v>
       </c>
     </row>
     <row r="7">
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2139017912.317069</v>
+        <v>1829199786.568324</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -15926,7 +15926,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3134573102.81858</v>
+        <v>2824754977.069835</v>
       </c>
     </row>
     <row r="10">
@@ -15983,7 +15983,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>36676607.93706794</v>
+        <v>36655135.10480636</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -15992,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36676607.93706794</v>
+        <v>36655135.10480636</v>
       </c>
     </row>
     <row r="12">
@@ -16016,7 +16016,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>56054993.85851308</v>
+        <v>56022175.67961787</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -16025,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56054993.85851308</v>
+        <v>56022175.67961787</v>
       </c>
     </row>
     <row r="13">
@@ -16049,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>191109.88931637</v>
+        <v>190998.0013630494</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -16058,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>191109.88931637</v>
+        <v>190998.0013630494</v>
       </c>
     </row>
     <row r="14">
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>7846773.255806956</v>
+        <v>7842179.252833568</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -16157,7 +16157,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7846773.255806956</v>
+        <v>7842179.252833568</v>
       </c>
     </row>
     <row r="17">
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>119410969.30212</v>
+        <v>119341058.4827111</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -16322,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>119410969.30212</v>
+        <v>119341058.4827111</v>
       </c>
     </row>
     <row r="22">
@@ -16346,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>14383659.80137075</v>
+        <v>14375238.68688948</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -16355,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>14383659.80137075</v>
+        <v>14375238.68688948</v>
       </c>
     </row>
     <row r="23">
@@ -16379,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>4759054.650770239</v>
+        <v>4756268.395770458</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4759054.650770239</v>
+        <v>4756268.395770458</v>
       </c>
     </row>
     <row r="24">
@@ -16445,7 +16445,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>202073756.6327299</v>
+        <v>201955449.7301916</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>202073756.6327299</v>
+        <v>201955449.7301916</v>
       </c>
     </row>
     <row r="26">
@@ -16469,7 +16469,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>72148.06027435526</v>
+        <v>72144.71697857682</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -16478,7 +16478,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>56206550.76268868</v>
+        <v>56173604.95589405</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>56278698.82296304</v>
+        <v>56245749.67287263</v>
       </c>
     </row>
     <row r="27">
@@ -16634,7 +16634,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45378739.68168356</v>
+        <v>45378739.68168095</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -16643,7 +16643,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>771.9439515175479</v>
+        <v>771.4919757943809</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -16652,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>45379511.62563507</v>
+        <v>45379511.17365674</v>
       </c>
     </row>
     <row r="32">
@@ -16775,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>36417372.48678769</v>
+        <v>36396051.42754039</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>36417372.48678769</v>
+        <v>36396051.42754039</v>
       </c>
     </row>
     <row r="36">
@@ -16808,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>118522436.3235634</v>
+        <v>118453045.7081942</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -16817,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>118522436.3235634</v>
+        <v>118453045.7081942</v>
       </c>
     </row>
     <row r="37">
@@ -16874,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>151404.4903501705</v>
+        <v>151315.8484771129</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -16883,7 +16883,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151404.4903501705</v>
+        <v>151315.8484771129</v>
       </c>
     </row>
     <row r="39">
@@ -16931,7 +16931,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>306665038.9335333</v>
+        <v>306665035.3263831</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -16940,7 +16940,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>59533593.54425884</v>
+        <v>59498696.80405603</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -16949,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>366198632.4777921</v>
+        <v>366163732.1304391</v>
       </c>
     </row>
     <row r="41">
@@ -17105,7 +17105,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1633270.966697341</v>
+        <v>1632314.745403218</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -17114,7 +17114,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1633270.966697341</v>
+        <v>1632314.745403218</v>
       </c>
     </row>
     <row r="46">
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>68285117.12429687</v>
+        <v>68245138.64895672</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -17147,7 +17147,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>68285117.12429687</v>
+        <v>68245138.64895672</v>
       </c>
     </row>
     <row r="47">
@@ -17204,7 +17204,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>123326346.2424755</v>
+        <v>123254143.1109634</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>123326346.2424755</v>
+        <v>123254143.1109634</v>
       </c>
     </row>
     <row r="49">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>293.7300533571307</v>
+        <v>293.5580849958049</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -17279,7 +17279,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>293.7300533571307</v>
+        <v>293.5580849958049</v>
       </c>
     </row>
     <row r="51">
@@ -17336,7 +17336,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>7868650.291609875</v>
+        <v>7864043.480420391</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -17345,7 +17345,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>7868650.291609875</v>
+        <v>7864043.480420391</v>
       </c>
     </row>
     <row r="53">
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>3940.69433125158</v>
+        <v>3938.38719672828</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>3940.69433125158</v>
+        <v>3938.38719672828</v>
       </c>
     </row>
     <row r="54">
@@ -17402,7 +17402,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>35153022.98123499</v>
+        <v>35132442.15306083</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -17411,7 +17411,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>35153022.98123499</v>
+        <v>35132442.15306083</v>
       </c>
     </row>
     <row r="55">
@@ -17492,7 +17492,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>94441914.09957772</v>
+        <v>94441914.09923056</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -17501,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>58625.66447021958</v>
+        <v>58591.33721731452</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -17510,7 +17510,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>94500539.76404795</v>
+        <v>94500505.43644787</v>
       </c>
     </row>
     <row r="58">
@@ -17534,7 +17534,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>96866934.81871241</v>
+        <v>96810222.71909226</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -17543,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>96866934.81871241</v>
+        <v>96810222.71909226</v>
       </c>
     </row>
     <row r="59">
@@ -17567,7 +17567,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>79871.32460441206</v>
+        <v>79824.56282211519</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>79871.32460441206</v>
+        <v>79824.56282211519</v>
       </c>
     </row>
     <row r="60">
@@ -17633,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>38897452.05847206</v>
+        <v>38874679.00200818</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -17642,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>38897452.05847206</v>
+        <v>38874679.00200818</v>
       </c>
     </row>
     <row r="62">
@@ -17666,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>34868007.19249897</v>
+        <v>34847593.23079823</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -17675,7 +17675,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>111750119.4735708</v>
+        <v>111729705.51187</v>
       </c>
     </row>
     <row r="63">
@@ -17699,7 +17699,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>114510085.5638106</v>
+        <v>114443044.0352213</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -17708,7 +17708,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>114510085.5638106</v>
+        <v>114443044.0352213</v>
       </c>
     </row>
     <row r="64">
@@ -17789,7 +17789,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1485910808.050153</v>
+        <v>766198736.3842434</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3662535257.164073</v>
+        <v>2942823185.498163</v>
       </c>
     </row>
     <row r="67">
@@ -17897,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>68836836.41731387</v>
+        <v>68796534.93020953</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -17906,7 +17906,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>68836836.41731387</v>
+        <v>68796534.93020953</v>
       </c>
     </row>
     <row r="70">
@@ -17954,7 +17954,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2417547575.267136</v>
+        <v>2417547562.068718</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -17963,7 +17963,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>57038294.62671343</v>
+        <v>57004747.20674473</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -17972,7 +17972,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>2474585869.893849</v>
+        <v>2474552309.275463</v>
       </c>
     </row>
     <row r="72">
@@ -17996,7 +17996,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>2452013.625601254</v>
+        <v>2450578.059984718</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -18005,7 +18005,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2452013.625601254</v>
+        <v>2450578.059984718</v>
       </c>
     </row>
     <row r="73">
@@ -18020,7 +18020,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>181777.0126777196</v>
+        <v>181768.5892451728</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -18029,7 +18029,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>51588346.2171821</v>
+        <v>51558045.09906206</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -18038,7 +18038,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>51770123.22985982</v>
+        <v>51739813.68830723</v>
       </c>
     </row>
     <row r="74">
@@ -18095,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>203751596.5901669</v>
+        <v>203632307.3727966</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>203751596.5901669</v>
+        <v>203632307.3727966</v>
       </c>
     </row>
     <row r="76">
@@ -18194,7 +18194,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>10717479.00856418</v>
+        <v>10711204.31082188</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -18203,7 +18203,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>10717479.00856418</v>
+        <v>10711204.31082188</v>
       </c>
     </row>
     <row r="79">
@@ -18293,7 +18293,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1153733.311418759</v>
+        <v>1153057.842141088</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -18302,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1153733.311418759</v>
+        <v>1153057.842141088</v>
       </c>
     </row>
     <row r="82">
@@ -18326,7 +18326,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>5423902.78535487</v>
+        <v>5420727.285730889</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>5423902.78535487</v>
+        <v>5420727.285730889</v>
       </c>
     </row>
     <row r="83">
@@ -18359,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>47527.46078388784</v>
+        <v>47499.63516830794</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -18368,7 +18368,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>47527.46078388784</v>
+        <v>47499.63516830794</v>
       </c>
     </row>
     <row r="84">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>55787127.00870696</v>
+        <v>55754465.65619942</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -18434,7 +18434,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>55787127.00870696</v>
+        <v>55754465.65619942</v>
       </c>
     </row>
     <row r="86">
@@ -18524,7 +18524,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>338706.6447043213</v>
+        <v>338508.3441695471</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -18533,7 +18533,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>338706.6447043213</v>
+        <v>338508.3441695471</v>
       </c>
     </row>
     <row r="89">
@@ -18590,7 +18590,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>5625543997.756426</v>
+        <v>5622250444.468966</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -18599,7 +18599,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>5625543997.756426</v>
+        <v>5622250444.468966</v>
       </c>
     </row>
     <row r="91">
